--- a/biology/Botanique/Raputia_aromatica/Raputia_aromatica.xlsx
+++ b/biology/Botanique/Raputia_aromatica/Raputia_aromatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raputia aromatica est une espèce de plantes à fleurs de la famille des Rutaceae (familles des agrumes). Il s'agit de l'espèce type du genre Raputia Aubl.. C' est un arbuste rare trouvé en Guyane.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si Aublet ne donne pas d'explication étymologique pour Raputia on peut supposer qu'il fait référence à l'Orapu, lieu de sa découverte. L'épithète spécifique aromatica se rapporte vraisemblablement à l'odeur résineuse se dégageant des feuilles froissées.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Raputia aromatica se distingue des autres Raputia tri-foliolées par la combinaison de petites folioles glabres, de petites fleurs et de méricarpes striguleux.
 Raputia aromatica est un arbrisseau ou un petit arbre à rameaux rougeâtres, atteignant 4-5 m de haut. Les bourgeons végétatifs, les jeunes rameaux et inflorescences sont couvertes d'un indument strigilleux, celui des jeunes pétioles est souvent fait de poils recourbés ascendants. 
@@ -567,7 +583,7 @@
 Les carpelles glabres à l'anthèse mais devenant densément strigilleux, sont hauts d'environ 1 mm.
 Le style est glabre, parsemé de glandes, et long d'environ 6 mm.
 Le fruit est composé de méricarpes coriaces, déhiscents jusqu'au milieu, densément strigilleux, longs de 1-5,12-13 mm pour 5-8 mm de large.
-Les graines (immatures) sont marron et mesurent environ 8,2 mm de long sur 5 mm de large[2],[3].
+Les graines (immatures) sont marron et mesurent environ 8,2 mm de long sur 5 mm de large,.
 </t>
         </is>
       </c>
@@ -596,9 +612,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raputia aromatica est une espèce rare subendémique de l'est de la Guyane (Orapu, Montagne de Kaw, savane-roche Virginie) et du nord de l'Amapá (marais de la Uaçá : Monte Tipac)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raputia aromatica est une espèce rare subendémique de l'est de la Guyane (Orapu, Montagne de Kaw, savane-roche Virginie) et du nord de l'Amapá (marais de la Uaçá : Monte Tipac).
 </t>
         </is>
       </c>
@@ -627,9 +645,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre rarement Raputia aromatica dans les sous-bois forestiers entre 80 et 250 m d'altitude. On l'a vu fleurir en février et fructifier en février et octobre[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre rarement Raputia aromatica dans les sous-bois forestiers entre 80 et 250 m d'altitude. On l'a vu fleurir en février et fructifier en février et octobre.
 </t>
         </is>
       </c>
@@ -658,9 +678,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raputia aromatica est une espèce déterminante ZNIEFF en Guyane[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raputia aromatica est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -689,9 +711,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Probablement en raison de sa rareté, il n'y a pas d'utilisation connue pour Raputia aromatica malgré les glandes à huile essentielle de ses feuilles, et les vertus anti-Chagas et anti-leishmaniose connues chez l'espèce proche Raputia praetermissa[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Probablement en raison de sa rareté, il n'y a pas d'utilisation connue pour Raputia aromatica malgré les glandes à huile essentielle de ses feuilles, et les vertus anti-Chagas et anti-leishmaniose connues chez l'espèce proche Raputia praetermissa.
 </t>
         </is>
       </c>
@@ -720,9 +744,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[6] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « RAPUTIA aromatica. (Tabula 272.)
 Frutex ramoſus, trunco bipedali ; ramis oppoſitis, erectis, &amp; undique ſparſis. Folia oppoſita, ternata ; foliolis ovato-oblongis, acuminatis, glabris, integerrimis, petiolo longo, communi adnexis. Foliola punctis numerofis, tranſlucidis, quaſi perforata ſunt. Flores axillares, &amp; ſuprà ramos ; pedicelliis ſpicæ infrà convexus, ſupernè canaliculatus. Flores diſpoſiti ad utrumque marginem canaliculi. Cortex trunci odorem aromaticum exhalat. 
 Florebat, fructumque ferebat Auguſto. 
